--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:56:36+00:00</t>
+    <t>2024-05-27T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:58:56+00:00</t>
+    <t>2024-05-27T09:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:10:49+00:00</t>
+    <t>2024-05-27T13:19:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4374" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4358" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T14:32:32+00:00</t>
+    <t>2024-06-24T11:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,6 +377,12 @@
     <t>Citizenship</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/citizenship-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#VYEGPSgn908
 </t>
   </si>
@@ -445,6 +451,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/gender-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#Rq4qM2wKYFL
 </t>
   </si>
@@ -489,6 +498,9 @@
     <t>Caretaker</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/caretaker-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#E5D1aKa2eFb
 </t>
   </si>
@@ -543,6 +555,9 @@
     <t>Mothers Education Level</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/education-level-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#YDWk8qQbFOh
 </t>
   </si>
@@ -623,6 +638,9 @@
     <t>Social Category</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/social-category-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FIeADYwBKjB
 </t>
   </si>
@@ -707,6 +725,9 @@
     <t>District of residence_vacc</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/district-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#getkVaLr2bw
 </t>
   </si>
@@ -715,6 +736,9 @@
   </si>
   <si>
     <t>Province of residence</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/province-vs</t>
   </si>
   <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FBm5ftjnCj2
@@ -1162,9 +1186,6 @@
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
@@ -2052,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
@@ -2060,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
@@ -2076,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46">
@@ -2084,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47">
@@ -2130,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53">
@@ -2166,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58">
@@ -2206,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63">
@@ -2214,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64">
@@ -2230,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73">
@@ -2310,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77">
@@ -2318,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78">
@@ -2326,7 +2347,7 @@
         <v>29</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79">
@@ -2342,7 +2363,7 @@
         <v>33</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3811,16 +3832,14 @@
         <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z14" s="2"/>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>71</v>
@@ -3855,10 +3874,10 @@
         <v>104</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3881,13 +3900,13 @@
         <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3923,7 +3942,7 @@
         <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>71</v>
@@ -3938,7 +3957,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -3958,10 +3977,10 @@
         <v>104</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3987,10 +4006,10 @@
         <v>82</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4026,22 +4045,22 @@
         <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -4061,10 +4080,10 @@
         <v>104</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4090,10 +4109,10 @@
         <v>82</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4129,22 +4148,22 @@
         <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -4164,10 +4183,10 @@
         <v>104</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4190,13 +4209,13 @@
         <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4232,7 +4251,7 @@
         <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>71</v>
@@ -4247,7 +4266,7 @@
         <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -4267,10 +4286,10 @@
         <v>104</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4296,10 +4315,10 @@
         <v>82</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4335,22 +4354,22 @@
         <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -4370,10 +4389,10 @@
         <v>104</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4399,10 +4418,10 @@
         <v>78</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4429,31 +4448,29 @@
         <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -4473,10 +4490,10 @@
         <v>104</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4499,13 +4516,13 @@
         <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4541,22 +4558,22 @@
         <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -4576,10 +4593,10 @@
         <v>104</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4602,13 +4619,13 @@
         <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4644,7 +4661,7 @@
         <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>71</v>
@@ -4659,7 +4676,7 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -4679,10 +4696,10 @@
         <v>104</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4705,13 +4722,13 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4747,7 +4764,7 @@
         <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>71</v>
@@ -4762,7 +4779,7 @@
         <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -4782,10 +4799,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4811,10 +4828,10 @@
         <v>78</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4841,16 +4858,14 @@
         <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z24" s="2"/>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>71</v>
@@ -4865,7 +4880,7 @@
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -4885,10 +4900,10 @@
         <v>104</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4914,10 +4929,10 @@
         <v>82</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4953,7 +4968,7 @@
         <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>71</v>
@@ -4968,7 +4983,7 @@
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -4988,10 +5003,10 @@
         <v>104</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5014,13 +5029,13 @@
         <v>71</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5056,7 +5071,7 @@
         <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>71</v>
@@ -5071,7 +5086,7 @@
         <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -5091,10 +5106,10 @@
         <v>104</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5120,10 +5135,10 @@
         <v>82</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5159,7 +5174,7 @@
         <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>71</v>
@@ -5174,7 +5189,7 @@
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -5194,10 +5209,10 @@
         <v>104</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5220,13 +5235,13 @@
         <v>71</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5262,7 +5277,7 @@
         <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>71</v>
@@ -5277,7 +5292,7 @@
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -5297,10 +5312,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5326,10 +5341,10 @@
         <v>78</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5356,16 +5371,14 @@
         <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z29" s="2"/>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>71</v>
@@ -5380,7 +5393,7 @@
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -5400,10 +5413,10 @@
         <v>104</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5429,10 +5442,10 @@
         <v>82</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5468,7 +5481,7 @@
         <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>71</v>
@@ -5483,7 +5496,7 @@
         <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
@@ -5503,10 +5516,10 @@
         <v>104</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5529,13 +5542,13 @@
         <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5571,7 +5584,7 @@
         <v>71</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>71</v>
@@ -5586,7 +5599,7 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
@@ -5606,10 +5619,10 @@
         <v>104</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5635,10 +5648,10 @@
         <v>82</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5674,7 +5687,7 @@
         <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>71</v>
@@ -5689,7 +5702,7 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -5709,10 +5722,10 @@
         <v>104</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5738,10 +5751,10 @@
         <v>78</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5768,16 +5781,14 @@
         <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z33" s="2"/>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>71</v>
@@ -5792,7 +5803,7 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -5812,10 +5823,10 @@
         <v>104</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5841,10 +5852,10 @@
         <v>82</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5880,7 +5891,7 @@
         <v>71</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>71</v>
@@ -5895,7 +5906,7 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -5915,10 +5926,10 @@
         <v>104</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5941,13 +5952,13 @@
         <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5983,7 +5994,7 @@
         <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>71</v>
@@ -5998,7 +6009,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
@@ -6018,10 +6029,10 @@
         <v>104</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6047,10 +6058,10 @@
         <v>82</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6086,7 +6097,7 @@
         <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>71</v>
@@ -6101,7 +6112,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -6121,10 +6132,10 @@
         <v>104</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6150,10 +6161,10 @@
         <v>78</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6180,16 +6191,14 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z37" s="2"/>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>71</v>
@@ -6204,7 +6213,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
@@ -6224,10 +6233,10 @@
         <v>104</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6250,13 +6259,13 @@
         <v>71</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6292,7 +6301,7 @@
         <v>71</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>71</v>
@@ -6307,7 +6316,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -6327,10 +6336,10 @@
         <v>104</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6353,13 +6362,13 @@
         <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6395,7 +6404,7 @@
         <v>71</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>71</v>
@@ -6410,7 +6419,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -6430,10 +6439,10 @@
         <v>104</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6459,10 +6468,10 @@
         <v>82</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6498,7 +6507,7 @@
         <v>71</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>71</v>
@@ -6513,7 +6522,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -6533,10 +6542,10 @@
         <v>104</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6562,10 +6571,10 @@
         <v>82</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6601,7 +6610,7 @@
         <v>71</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>71</v>
@@ -6616,7 +6625,7 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
@@ -6636,10 +6645,10 @@
         <v>104</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6665,10 +6674,10 @@
         <v>82</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6704,7 +6713,7 @@
         <v>71</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>71</v>
@@ -6719,7 +6728,7 @@
         <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -6739,10 +6748,10 @@
         <v>104</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6768,10 +6777,10 @@
         <v>82</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6807,7 +6816,7 @@
         <v>71</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>71</v>
@@ -6822,7 +6831,7 @@
         <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
@@ -6842,10 +6851,10 @@
         <v>104</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6871,10 +6880,10 @@
         <v>82</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6910,7 +6919,7 @@
         <v>71</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>71</v>
@@ -6925,7 +6934,7 @@
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -6945,10 +6954,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6974,10 +6983,10 @@
         <v>78</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7004,16 +7013,14 @@
         <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>71</v>
@@ -7028,7 +7035,7 @@
         <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -7048,10 +7055,10 @@
         <v>104</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7077,10 +7084,10 @@
         <v>78</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7107,16 +7114,14 @@
         <v>71</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z46" s="2"/>
       <c r="AA46" t="s" s="2">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>71</v>
@@ -7131,7 +7136,7 @@
         <v>71</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
@@ -7151,10 +7156,10 @@
         <v>104</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7177,13 +7182,13 @@
         <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7219,7 +7224,7 @@
         <v>71</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>71</v>
@@ -7234,7 +7239,7 @@
         <v>71</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
@@ -7251,13 +7256,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7283,10 +7288,10 @@
         <v>74</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7354,13 +7359,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7386,10 +7391,10 @@
         <v>82</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7425,7 +7430,7 @@
         <v>71</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>71</v>
@@ -7440,7 +7445,7 @@
         <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7457,13 +7462,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7519,16 +7524,14 @@
         <v>71</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z50" s="2"/>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>71</v>
@@ -7543,7 +7546,7 @@
         <v>71</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
@@ -7560,13 +7563,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7592,10 +7595,10 @@
         <v>82</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7631,7 +7634,7 @@
         <v>71</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>71</v>
@@ -7646,7 +7649,7 @@
         <v>71</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -7663,13 +7666,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7749,7 +7752,7 @@
         <v>71</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
@@ -7766,13 +7769,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7852,7 +7855,7 @@
         <v>71</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
@@ -7869,13 +7872,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7901,10 +7904,10 @@
         <v>82</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -7940,7 +7943,7 @@
         <v>71</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>71</v>
@@ -7955,7 +7958,7 @@
         <v>71</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7972,13 +7975,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8004,10 +8007,10 @@
         <v>82</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -8043,7 +8046,7 @@
         <v>71</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>71</v>
@@ -8058,7 +8061,7 @@
         <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
@@ -8075,13 +8078,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8104,13 +8107,13 @@
         <v>71</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8146,7 +8149,7 @@
         <v>71</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>71</v>
@@ -8161,7 +8164,7 @@
         <v>71</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8178,13 +8181,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8207,13 +8210,13 @@
         <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8249,7 +8252,7 @@
         <v>71</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>71</v>
@@ -8264,7 +8267,7 @@
         <v>71</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
@@ -8281,13 +8284,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8313,10 +8316,10 @@
         <v>82</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8352,7 +8355,7 @@
         <v>71</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>71</v>
@@ -8367,7 +8370,7 @@
         <v>71</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -8384,13 +8387,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8416,10 +8419,10 @@
         <v>78</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8446,16 +8449,14 @@
         <v>71</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z59" s="2"/>
       <c r="AA59" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>71</v>
@@ -8470,7 +8471,7 @@
         <v>71</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
@@ -8487,13 +8488,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8516,13 +8517,13 @@
         <v>71</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -8558,7 +8559,7 @@
         <v>71</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>71</v>
@@ -8573,7 +8574,7 @@
         <v>71</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
@@ -8590,13 +8591,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8619,13 +8620,13 @@
         <v>71</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8661,7 +8662,7 @@
         <v>71</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>71</v>
@@ -8676,7 +8677,7 @@
         <v>71</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
@@ -8693,13 +8694,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8722,13 +8723,13 @@
         <v>71</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8764,7 +8765,7 @@
         <v>71</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>71</v>
@@ -8779,7 +8780,7 @@
         <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
@@ -8796,13 +8797,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8828,10 +8829,10 @@
         <v>78</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8858,16 +8859,14 @@
         <v>71</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z63" s="2"/>
       <c r="AA63" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>71</v>
@@ -8882,7 +8881,7 @@
         <v>71</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
@@ -8899,13 +8898,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8931,10 +8930,10 @@
         <v>82</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8970,7 +8969,7 @@
         <v>71</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>71</v>
@@ -8985,7 +8984,7 @@
         <v>71</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
@@ -9002,13 +9001,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9031,13 +9030,13 @@
         <v>71</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9073,7 +9072,7 @@
         <v>71</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>71</v>
@@ -9088,7 +9087,7 @@
         <v>71</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
@@ -9105,13 +9104,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9137,10 +9136,10 @@
         <v>82</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9176,7 +9175,7 @@
         <v>71</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>71</v>
@@ -9191,7 +9190,7 @@
         <v>71</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
@@ -9208,13 +9207,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9237,13 +9236,13 @@
         <v>71</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9279,7 +9278,7 @@
         <v>71</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>71</v>
@@ -9294,7 +9293,7 @@
         <v>71</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
@@ -9311,13 +9310,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9343,10 +9342,10 @@
         <v>78</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9373,16 +9372,14 @@
         <v>71</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z68" s="2"/>
       <c r="AA68" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>71</v>
@@ -9397,7 +9394,7 @@
         <v>71</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
@@ -9414,13 +9411,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9446,10 +9443,10 @@
         <v>82</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -9485,7 +9482,7 @@
         <v>71</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>71</v>
@@ -9500,7 +9497,7 @@
         <v>71</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
@@ -9517,13 +9514,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9546,13 +9543,13 @@
         <v>71</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -9588,7 +9585,7 @@
         <v>71</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>71</v>
@@ -9603,7 +9600,7 @@
         <v>71</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
@@ -9620,13 +9617,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9652,10 +9649,10 @@
         <v>82</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -9691,7 +9688,7 @@
         <v>71</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>71</v>
@@ -9706,7 +9703,7 @@
         <v>71</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
@@ -9723,13 +9720,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9755,10 +9752,10 @@
         <v>78</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9785,16 +9782,14 @@
         <v>71</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z72" s="2"/>
       <c r="AA72" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>71</v>
@@ -9809,7 +9804,7 @@
         <v>71</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
@@ -9826,13 +9821,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9858,10 +9853,10 @@
         <v>82</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -9897,7 +9892,7 @@
         <v>71</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>71</v>
@@ -9912,7 +9907,7 @@
         <v>71</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
@@ -9929,13 +9924,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9958,13 +9953,13 @@
         <v>71</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -10000,7 +9995,7 @@
         <v>71</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>71</v>
@@ -10015,7 +10010,7 @@
         <v>71</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
@@ -10032,13 +10027,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10064,10 +10059,10 @@
         <v>82</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -10103,7 +10098,7 @@
         <v>71</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>71</v>
@@ -10118,7 +10113,7 @@
         <v>71</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
@@ -10135,13 +10130,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10167,10 +10162,10 @@
         <v>78</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10197,16 +10192,14 @@
         <v>71</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z76" s="2"/>
       <c r="AA76" t="s" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>71</v>
@@ -10221,7 +10214,7 @@
         <v>71</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
@@ -10238,13 +10231,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10270,10 +10263,10 @@
         <v>78</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -10300,16 +10293,14 @@
         <v>71</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z77" s="2"/>
       <c r="AA77" t="s" s="2">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>71</v>
@@ -10324,7 +10315,7 @@
         <v>71</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
@@ -10341,13 +10332,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10373,10 +10364,10 @@
         <v>78</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10403,16 +10394,14 @@
         <v>71</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Z78" s="2"/>
       <c r="AA78" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>71</v>
@@ -10427,7 +10416,7 @@
         <v>71</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>72</v>
@@ -10444,13 +10433,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10473,13 +10462,13 @@
         <v>71</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10515,7 +10504,7 @@
         <v>71</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>71</v>
@@ -10530,7 +10519,7 @@
         <v>71</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>72</v>
@@ -10547,13 +10536,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10579,10 +10568,10 @@
         <v>82</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -10618,7 +10607,7 @@
         <v>71</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>71</v>
@@ -10633,7 +10622,7 @@
         <v>71</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>72</v>
@@ -10650,13 +10639,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10682,10 +10671,10 @@
         <v>82</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10721,7 +10710,7 @@
         <v>71</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>71</v>
@@ -10736,7 +10725,7 @@
         <v>71</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>72</v>
@@ -10753,13 +10742,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10785,10 +10774,10 @@
         <v>82</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -10824,7 +10813,7 @@
         <v>71</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>71</v>
@@ -10839,7 +10828,7 @@
         <v>71</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>72</v>
@@ -10856,13 +10845,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10885,13 +10874,13 @@
         <v>71</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10927,7 +10916,7 @@
         <v>71</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>71</v>
@@ -10942,7 +10931,7 @@
         <v>71</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>72</v>
@@ -10959,13 +10948,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10988,13 +10977,13 @@
         <v>71</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11030,7 +11019,7 @@
         <v>71</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>71</v>
@@ -11045,7 +11034,7 @@
         <v>71</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
@@ -11062,17 +11051,17 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -11094,10 +11083,10 @@
         <v>74</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11148,7 +11137,7 @@
         <v>71</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>72</v>
@@ -11160,18 +11149,18 @@
         <v>71</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11191,19 +11180,19 @@
         <v>71</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11253,7 +11242,7 @@
         <v>71</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>72</v>
@@ -11270,13 +11259,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11296,16 +11285,16 @@
         <v>71</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11356,7 +11345,7 @@
         <v>71</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>72</v>
@@ -11368,18 +11357,18 @@
         <v>71</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11396,22 +11385,22 @@
         <v>71</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11461,7 +11450,7 @@
         <v>71</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>72</v>
@@ -11473,18 +11462,18 @@
         <v>71</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11510,13 +11499,13 @@
         <v>78</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11542,13 +11531,13 @@
         <v>71</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>71</v>
@@ -11566,7 +11555,7 @@
         <v>71</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>72</v>
@@ -11578,22 +11567,22 @@
         <v>71</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11612,16 +11601,16 @@
         <v>71</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -11671,7 +11660,7 @@
         <v>71</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>72</v>
@@ -11683,22 +11672,22 @@
         <v>71</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
@@ -11717,16 +11706,16 @@
         <v>71</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11776,7 +11765,7 @@
         <v>71</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
@@ -11793,17 +11782,17 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
@@ -11822,16 +11811,16 @@
         <v>71</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11881,7 +11870,7 @@
         <v>71</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>72</v>
@@ -11893,22 +11882,22 @@
         <v>71</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -11921,25 +11910,25 @@
         <v>71</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>71</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P93" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q93" t="s" s="2">
         <v>71</v>
@@ -11988,7 +11977,7 @@
         <v>71</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>72</v>
@@ -12000,18 +11989,18 @@
         <v>71</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12031,20 +12020,20 @@
         <v>71</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>71</v>
@@ -12093,7 +12082,7 @@
         <v>71</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
@@ -12105,18 +12094,18 @@
         <v>71</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12133,31 +12122,31 @@
         <v>71</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P95" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>71</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>71</v>
@@ -12202,7 +12191,7 @@
         <v>71</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>72</v>
@@ -12214,18 +12203,18 @@
         <v>71</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12239,28 +12228,28 @@
         <v>73</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>71</v>
@@ -12309,7 +12298,7 @@
         <v>71</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>72</v>
@@ -12321,18 +12310,18 @@
         <v>71</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12352,22 +12341,22 @@
         <v>71</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P97" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>71</v>
@@ -12416,7 +12405,7 @@
         <v>71</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>72</v>
@@ -12428,18 +12417,18 @@
         <v>71</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12459,22 +12448,22 @@
         <v>71</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>71</v>
@@ -12499,13 +12488,13 @@
         <v>71</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>71</v>
@@ -12523,7 +12512,7 @@
         <v>71</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
@@ -12535,18 +12524,18 @@
         <v>71</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12566,22 +12555,22 @@
         <v>71</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>71</v>
@@ -12630,7 +12619,7 @@
         <v>71</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>72</v>
@@ -12642,18 +12631,18 @@
         <v>71</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12670,25 +12659,25 @@
         <v>71</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P100" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q100" t="s" s="2">
         <v>71</v>
@@ -12737,7 +12726,7 @@
         <v>71</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
@@ -12749,18 +12738,18 @@
         <v>71</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12780,22 +12769,22 @@
         <v>71</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P101" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>71</v>
@@ -12844,7 +12833,7 @@
         <v>71</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>72</v>
@@ -12856,18 +12845,18 @@
         <v>71</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12890,17 +12879,17 @@
         <v>71</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>71</v>
@@ -12925,32 +12914,32 @@
         <v>71</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AA102" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG102" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AB102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AH102" t="s" s="2">
         <v>72</v>
       </c>
@@ -12961,18 +12950,18 @@
         <v>71</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12995,19 +12984,19 @@
         <v>71</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P103" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>71</v>
@@ -13056,7 +13045,7 @@
         <v>71</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
@@ -13068,18 +13057,18 @@
         <v>71</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13102,19 +13091,19 @@
         <v>71</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="P104" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>71</v>
@@ -13163,7 +13152,7 @@
         <v>71</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>72</v>
@@ -13175,18 +13164,18 @@
         <v>71</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13209,19 +13198,19 @@
         <v>71</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P105" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>71</v>
@@ -13270,7 +13259,7 @@
         <v>71</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>72</v>
@@ -13282,18 +13271,18 @@
         <v>71</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13319,10 +13308,10 @@
         <v>82</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -13373,7 +13362,7 @@
         <v>71</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
@@ -13390,17 +13379,17 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
@@ -13419,16 +13408,16 @@
         <v>71</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -13478,7 +13467,7 @@
         <v>71</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>72</v>
@@ -13490,22 +13479,22 @@
         <v>71</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
@@ -13518,25 +13507,25 @@
         <v>71</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P108" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q108" t="s" s="2">
         <v>71</v>
@@ -13585,7 +13574,7 @@
         <v>71</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>72</v>
@@ -13597,18 +13586,18 @@
         <v>71</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13631,17 +13620,17 @@
         <v>71</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q109" t="s" s="2">
         <v>71</v>
@@ -13666,13 +13655,13 @@
         <v>71</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AB109" t="s" s="2">
         <v>71</v>
@@ -13690,7 +13679,7 @@
         <v>71</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
@@ -13702,18 +13691,18 @@
         <v>71</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13736,17 +13725,17 @@
         <v>71</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q110" t="s" s="2">
         <v>71</v>
@@ -13795,7 +13784,7 @@
         <v>71</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>72</v>
@@ -13807,18 +13796,18 @@
         <v>71</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13841,19 +13830,19 @@
         <v>71</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P111" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>71</v>
@@ -13902,7 +13891,7 @@
         <v>71</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>72</v>
@@ -13914,18 +13903,18 @@
         <v>71</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13948,17 +13937,17 @@
         <v>71</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q112" t="s" s="2">
         <v>71</v>
@@ -14007,7 +13996,7 @@
         <v>71</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>72</v>
@@ -14019,18 +14008,18 @@
         <v>71</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14056,14 +14045,14 @@
         <v>78</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>71</v>
@@ -14088,13 +14077,13 @@
         <v>71</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AB113" t="s" s="2">
         <v>71</v>
@@ -14112,7 +14101,7 @@
         <v>71</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
@@ -14124,18 +14113,18 @@
         <v>71</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14158,17 +14147,17 @@
         <v>71</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>71</v>
@@ -14217,7 +14206,7 @@
         <v>71</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>72</v>
@@ -14226,21 +14215,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14263,13 +14252,13 @@
         <v>71</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -14320,7 +14309,7 @@
         <v>71</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>72</v>
@@ -14332,18 +14321,18 @@
         <v>71</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14366,19 +14355,19 @@
         <v>71</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P116" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q116" t="s" s="2">
         <v>71</v>
@@ -14427,7 +14416,7 @@
         <v>71</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>72</v>
@@ -14439,18 +14428,18 @@
         <v>71</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14476,10 +14465,10 @@
         <v>82</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -14530,7 +14519,7 @@
         <v>71</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>72</v>
@@ -14547,17 +14536,17 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
@@ -14576,16 +14565,16 @@
         <v>71</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
@@ -14635,7 +14624,7 @@
         <v>71</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>72</v>
@@ -14647,22 +14636,22 @@
         <v>71</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
@@ -14675,25 +14664,25 @@
         <v>71</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P119" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q119" t="s" s="2">
         <v>71</v>
@@ -14742,7 +14731,7 @@
         <v>71</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>72</v>
@@ -14754,18 +14743,18 @@
         <v>71</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14788,19 +14777,19 @@
         <v>71</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>71</v>
@@ -14825,13 +14814,13 @@
         <v>71</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AB120" t="s" s="2">
         <v>71</v>
@@ -14849,7 +14838,7 @@
         <v>71</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>77</v>
@@ -14861,18 +14850,18 @@
         <v>71</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14895,19 +14884,19 @@
         <v>71</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>71</v>
@@ -14956,7 +14945,7 @@
         <v>71</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>72</v>
@@ -14968,22 +14957,22 @@
         <v>71</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
@@ -15002,16 +14991,16 @@
         <v>71</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
@@ -15061,7 +15050,7 @@
         <v>71</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>72</v>
@@ -15073,18 +15062,18 @@
         <v>71</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15104,22 +15093,22 @@
         <v>71</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="P123" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="Q123" t="s" s="2">
         <v>71</v>
@@ -15168,7 +15157,7 @@
         <v>71</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>72</v>
@@ -15180,18 +15169,18 @@
         <v>71</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15208,25 +15197,25 @@
         <v>71</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P124" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q124" t="s" s="2">
         <v>71</v>
@@ -15275,7 +15264,7 @@
         <v>71</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>72</v>
@@ -15287,18 +15276,18 @@
         <v>71</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15324,10 +15313,10 @@
         <v>82</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -15378,7 +15367,7 @@
         <v>71</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>72</v>
@@ -15395,17 +15384,17 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
@@ -15424,16 +15413,16 @@
         <v>71</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -15483,7 +15472,7 @@
         <v>71</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>72</v>
@@ -15495,22 +15484,22 @@
         <v>71</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
@@ -15523,25 +15512,25 @@
         <v>71</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>71</v>
@@ -15590,7 +15579,7 @@
         <v>71</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>72</v>
@@ -15602,18 +15591,18 @@
         <v>71</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15633,19 +15622,19 @@
         <v>71</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -15695,7 +15684,7 @@
         <v>71</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>77</v>
@@ -15707,18 +15696,18 @@
         <v>71</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15738,16 +15727,16 @@
         <v>71</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -15774,13 +15763,13 @@
         <v>71</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AB129" t="s" s="2">
         <v>71</v>
@@ -15798,7 +15787,7 @@
         <v>71</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>77</v>
@@ -15810,7 +15799,7 @@
         <v>71</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
